--- a/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_18_.xlsx
+++ b/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_18_.xlsx
@@ -138,7 +138,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -177,7 +177,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -191,7 +191,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>PIL</t>
         </is>
       </c>
     </row>
@@ -432,7 +432,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -447,7 +447,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>PIL</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -593,7 +593,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>PIL</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -763,7 +763,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>PIL</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1038,7 +1038,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>PIL</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1211,7 +1211,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>PIL</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1489,7 +1489,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>PIL</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1657,7 +1657,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>PIL</t>
         </is>
       </c>
     </row>
@@ -8992,7 +8992,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -9007,7 +9007,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>PIL</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9188,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -9215,7 +9215,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -9229,7 +9229,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>PIL</t>
         </is>
       </c>
     </row>

--- a/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_18_.xlsx
+++ b/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_18_.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
+    <numFmt numFmtId="102" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -110,13 +111,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="2" numFmtId="0" fontId="1" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
     </xf>
+    <xf borderId="0" numFmtId="102" fontId="0" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf borderId="3" numFmtId="0" fontId="2" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
@@ -132,13 +134,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -148,30 +150,30 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.713483146067418"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="32" max="32" bestFit="false" customWidth="false"/>
-    <col min="33" max="33" bestFit="false" customWidth="false"/>
-    <col min="34" max="34" bestFit="false" customWidth="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -181,229 +183,237 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>PIL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>PIL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Container In Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Unstuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Vessel</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>In Transport</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>In Trailer</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>In Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -426,15 +436,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -451,103 +461,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>PIL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>PIL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Issue Balance Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -572,15 +575,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -597,103 +600,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>PIL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>PIL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Container In Report</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -718,13 +714,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="46.456179775280894" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -733,31 +729,31 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="33" max="33" bestFit="false" customWidth="false"/>
-    <col min="34" max="34" bestFit="false" customWidth="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -767,234 +763,237 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>PIL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>PIL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container Unstuffing Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Unstuffing Date</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>In Transport</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>Trailer Number</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>In Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Import Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1017,15 +1016,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1042,103 +1041,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>PIL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>PIL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container Unstuffing Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1163,13 +1155,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="44.6561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1177,35 +1169,35 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.713483146067418"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.713483146067418"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="33" max="33" bestFit="false" customWidth="false"/>
-    <col min="34" max="34" bestFit="false" customWidth="false"/>
-    <col min="35" max="35" bestFit="false" customWidth="false"/>
-    <col min="36" max="36" bestFit="false" customWidth="false"/>
-    <col min="37" max="37" bestFit="false" customWidth="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1215,237 +1207,255 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>PIL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>PIL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container FCL Out Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Out Date</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Out Location</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>Total Lot</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>Total Weight</t>
+        </is>
+      </c>
+      <c r="AI6" s="5" t="inlineStr">
+        <is>
+          <t>Out Transport</t>
+        </is>
+      </c>
+      <c r="AJ6" s="5" t="inlineStr">
+        <is>
+          <t>Trailer Number</t>
+        </is>
+      </c>
+      <c r="AK6" s="5" t="inlineStr">
+        <is>
+          <t>Out Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Import Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>CNFCommodity</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Current Depo</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Out Location</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>Total Lot</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>Total Weight</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Out Transport</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>Out Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
-      <c r="AI8" s="0"/>
-      <c r="AJ8" s="0"/>
-      <c r="AK8" s="0"/>
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
+      <c r="AK7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1468,15 +1478,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="46.456179775280894" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1493,103 +1503,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>PIL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>PIL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container FCL Out Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1614,13 +1617,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF71"/>
+  <dimension ref="A1:AF70"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1628,30 +1631,30 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="16.28988764044944"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="37.189887640449435"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="27.28988764044944"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="43.789887640449436"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.713483146067418"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="17.38988764044944"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.989887640449439"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="21.789887640449443"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="25.08988764044944"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="18.48988764044944"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.08988764044944"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="31" max="31" bestFit="true" customWidth="true" width="15.18988764044944"/>
-    <col min="32" max="32" bestFit="false" customWidth="false"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1661,181 +1664,325 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>PIL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>PIL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Laden Container Stock Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:64</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="Y6" s="4" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="Z6" s="4" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Trailer Number</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>In Transport</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>In Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Import Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
+      <c r="A7" s="0" t="n">
+        <v>8797</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>PCIU2129609</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-E</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>PIL</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>PIL</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>RISSEN</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>2014/735</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>SHISHIR KNITTING &amp; DYEING LIMITED</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N7" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR LOCK BAR BENT 01 PC </t>
+        </is>
+      </c>
+      <c r="O7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0" t="inlineStr">
+        <is>
+          <t>SODIUM SULPHATE</t>
+        </is>
+      </c>
+      <c r="T7" s="0" t="inlineStr">
+        <is>
+          <t>W020120</t>
+        </is>
+      </c>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0" t="inlineStr">
+        <is>
+          <t>2014-3581</t>
+        </is>
+      </c>
+      <c r="W7" s="0" t="d">
+        <v>2014-04-10T00:00:00</v>
+      </c>
+      <c r="X7" s="0" t="d">
+        <v>2014-04-12T00:00:00</v>
       </c>
       <c r="Y7" s="4" t="inlineStr">
         <is>
-          <t>BL #</t>
+          <t>CPA</t>
         </is>
       </c>
       <c r="Z7" s="4" t="inlineStr">
         <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
+          <t>SAPL</t>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="0" t="inlineStr">
+        <is>
+          <t>UQDCGPS1402415</t>
+        </is>
+      </c>
+      <c r="AC7" s="0" t="inlineStr">
+        <is>
+          <t>PIL-478</t>
+        </is>
+      </c>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
@@ -1891,17 +2038,17 @@
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="M8" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="N8" s="0" t="inlineStr">
         <is>
-          <t>RIGHT DOOR LOCK BAR BENT 01 PC </t>
+          <t>INTERNAL PANEL DIRTY</t>
         </is>
       </c>
       <c r="O8" s="0" t="inlineStr">
@@ -1942,12 +2089,12 @@
       <c r="X8" s="0" t="d">
         <v>2014-04-12T00:00:00</v>
       </c>
-      <c r="Y8" s="0" t="inlineStr">
+      <c r="Y8" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z8" s="0" t="inlineStr">
+      <c r="Z8" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2027,17 +2174,17 @@
       </c>
       <c r="L9" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="M9" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="N9" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY SODIUM SULPHATE DUST </t>
         </is>
       </c>
       <c r="O9" s="0" t="inlineStr">
@@ -2078,12 +2225,12 @@
       <c r="X9" s="0" t="d">
         <v>2014-04-12T00:00:00</v>
       </c>
-      <c r="Y9" s="0" t="inlineStr">
+      <c r="Y9" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z9" s="0" t="inlineStr">
+      <c r="Z9" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2111,11 +2258,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>8797</v>
+        <v>8798</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>PCIU2129609</t>
+          <t>PCIU3783511</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -2158,39 +2305,15 @@
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="N10" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY SODIUM SULPHATE DUST </t>
-        </is>
-      </c>
-      <c r="O10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
       <c r="R10" s="0"/>
       <c r="S10" s="0" t="inlineStr">
         <is>
@@ -2199,13 +2322,13 @@
       </c>
       <c r="T10" s="0" t="inlineStr">
         <is>
-          <t>W020120</t>
+          <t>W020188</t>
         </is>
       </c>
       <c r="U10" s="0"/>
       <c r="V10" s="0" t="inlineStr">
         <is>
-          <t>2014-3581</t>
+          <t>2014-3583</t>
         </is>
       </c>
       <c r="W10" s="0" t="d">
@@ -2214,12 +2337,12 @@
       <c r="X10" s="0" t="d">
         <v>2014-04-12T00:00:00</v>
       </c>
-      <c r="Y10" s="0" t="inlineStr">
+      <c r="Y10" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z10" s="0" t="inlineStr">
+      <c r="Z10" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2247,11 +2370,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>8798</v>
+        <v>8799</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>PCIU3783511</t>
+          <t>PCIU2795077</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -2311,13 +2434,13 @@
       </c>
       <c r="T11" s="0" t="inlineStr">
         <is>
-          <t>W020188</t>
+          <t>W020121</t>
         </is>
       </c>
       <c r="U11" s="0"/>
       <c r="V11" s="0" t="inlineStr">
         <is>
-          <t>2014-3583</t>
+          <t>2014-3582</t>
         </is>
       </c>
       <c r="W11" s="0" t="d">
@@ -2326,12 +2449,12 @@
       <c r="X11" s="0" t="d">
         <v>2014-04-12T00:00:00</v>
       </c>
-      <c r="Y11" s="0" t="inlineStr">
+      <c r="Y11" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z11" s="0" t="inlineStr">
+      <c r="Z11" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2359,11 +2482,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>8799</v>
+        <v>8800</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>PCIU2795077</t>
+          <t>PCIU1539527</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -2423,27 +2546,27 @@
       </c>
       <c r="T12" s="0" t="inlineStr">
         <is>
-          <t>W020121</t>
+          <t>W020190</t>
         </is>
       </c>
       <c r="U12" s="0"/>
       <c r="V12" s="0" t="inlineStr">
         <is>
-          <t>2014-3582</t>
+          <t>2014-3580</t>
         </is>
       </c>
       <c r="W12" s="0" t="d">
         <v>2014-04-10T00:00:00</v>
       </c>
       <c r="X12" s="0" t="d">
-        <v>2014-04-12T00:00:00</v>
-      </c>
-      <c r="Y12" s="0" t="inlineStr">
+        <v>2014-04-13T00:00:00</v>
+      </c>
+      <c r="Y12" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z12" s="0" t="inlineStr">
+      <c r="Z12" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2471,24 +2594,24 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>8800</v>
+        <v>9746</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>PCIU1539527</t>
+          <t>PCIU8902233</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
@@ -2503,17 +2626,17 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>RISSEN</t>
+          <t>KOTA WANGI</t>
         </is>
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>2014/735</t>
+          <t>3284/2017</t>
         </is>
       </c>
       <c r="J13" s="0" t="inlineStr">
         <is>
-          <t>SHISHIR KNITTING &amp; DYEING LIMITED</t>
+          <t>M/S ROBIUL INTERNATIONAL EXPORT &amp;</t>
         </is>
       </c>
       <c r="K13" s="0" t="inlineStr">
@@ -2530,32 +2653,32 @@
       <c r="R13" s="0"/>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>SODIUM SULPHATE</t>
+          <t>SCRAP</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
         <is>
-          <t>W020190</t>
+          <t>W0392558</t>
         </is>
       </c>
       <c r="U13" s="0"/>
       <c r="V13" s="0" t="inlineStr">
         <is>
-          <t>2014-3580</t>
+          <t>2017-22591</t>
         </is>
       </c>
       <c r="W13" s="0" t="d">
-        <v>2014-04-10T00:00:00</v>
+        <v>2017-11-18T00:00:00</v>
       </c>
       <c r="X13" s="0" t="d">
-        <v>2014-04-13T00:00:00</v>
-      </c>
-      <c r="Y13" s="0" t="inlineStr">
+        <v>2018-09-18T11:02:39.788</v>
+      </c>
+      <c r="Y13" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z13" s="0" t="inlineStr">
+      <c r="Z13" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2565,29 +2688,31 @@
       </c>
       <c r="AB13" s="0" t="inlineStr">
         <is>
-          <t>UQDCGPS1402415</t>
-        </is>
-      </c>
-      <c r="AC13" s="0" t="inlineStr">
-        <is>
-          <t>PIL-478</t>
-        </is>
-      </c>
-      <c r="AD13" s="0"/>
+          <t>SEL700355400</t>
+        </is>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="AD13" s="0" t="inlineStr">
+        <is>
+          <t>PREVSERVER</t>
+        </is>
+      </c>
       <c r="AE13" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>PREV SERVER</t>
         </is>
       </c>
       <c r="AF13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>9746</v>
+        <v>8841</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>PCIU8902233</t>
+          <t>PCIU8746064</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -2647,27 +2772,27 @@
       </c>
       <c r="T14" s="0" t="inlineStr">
         <is>
-          <t>W0392558</t>
+          <t>W0392469</t>
         </is>
       </c>
       <c r="U14" s="0"/>
       <c r="V14" s="0" t="inlineStr">
         <is>
-          <t>2017-22591</t>
+          <t>2017-22543</t>
         </is>
       </c>
       <c r="W14" s="0" t="d">
         <v>2017-11-18T00:00:00</v>
       </c>
       <c r="X14" s="0" t="d">
-        <v>2018-09-18T11:02:39.788</v>
-      </c>
-      <c r="Y14" s="0" t="inlineStr">
+        <v>2017-11-19T00:00:00</v>
+      </c>
+      <c r="Y14" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z14" s="0" t="inlineStr">
+      <c r="Z14" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2683,25 +2808,21 @@
       <c r="AC14" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="AD14" s="0" t="inlineStr">
-        <is>
-          <t>PREVSERVER</t>
-        </is>
-      </c>
+      <c r="AD14" s="0"/>
       <c r="AE14" s="0" t="inlineStr">
         <is>
-          <t>PREV SERVER</t>
+          <t/>
         </is>
       </c>
       <c r="AF14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>8841</v>
+        <v>8842</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>PCIU8746064</t>
+          <t>PCIU8740615</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2761,13 +2882,13 @@
       </c>
       <c r="T15" s="0" t="inlineStr">
         <is>
-          <t>W0392469</t>
+          <t>W0392510</t>
         </is>
       </c>
       <c r="U15" s="0"/>
       <c r="V15" s="0" t="inlineStr">
         <is>
-          <t>2017-22543</t>
+          <t>2017-22547</t>
         </is>
       </c>
       <c r="W15" s="0" t="d">
@@ -2776,12 +2897,12 @@
       <c r="X15" s="0" t="d">
         <v>2017-11-19T00:00:00</v>
       </c>
-      <c r="Y15" s="0" t="inlineStr">
+      <c r="Y15" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z15" s="0" t="inlineStr">
+      <c r="Z15" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2807,11 +2928,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>8842</v>
+        <v>8843</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>PCIU8740615</t>
+          <t>PCIU8994461</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2871,13 +2992,13 @@
       </c>
       <c r="T16" s="0" t="inlineStr">
         <is>
-          <t>W0392510</t>
+          <t>W0392468</t>
         </is>
       </c>
       <c r="U16" s="0"/>
       <c r="V16" s="0" t="inlineStr">
         <is>
-          <t>2017-22547</t>
+          <t>2017-22546</t>
         </is>
       </c>
       <c r="W16" s="0" t="d">
@@ -2886,12 +3007,12 @@
       <c r="X16" s="0" t="d">
         <v>2017-11-19T00:00:00</v>
       </c>
-      <c r="Y16" s="0" t="inlineStr">
+      <c r="Y16" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z16" s="0" t="inlineStr">
+      <c r="Z16" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2917,11 +3038,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>8843</v>
+        <v>8844</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>PCIU8994461</t>
+          <t>PCIU9052155</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -2981,27 +3102,27 @@
       </c>
       <c r="T17" s="0" t="inlineStr">
         <is>
-          <t>W0392468</t>
+          <t>W0392567</t>
         </is>
       </c>
       <c r="U17" s="0"/>
       <c r="V17" s="0" t="inlineStr">
         <is>
-          <t>2017-22546</t>
+          <t>2017-22553</t>
         </is>
       </c>
       <c r="W17" s="0" t="d">
         <v>2017-11-18T00:00:00</v>
       </c>
       <c r="X17" s="0" t="d">
-        <v>2017-11-19T00:00:00</v>
-      </c>
-      <c r="Y17" s="0" t="inlineStr">
+        <v>2017-11-20T00:00:00</v>
+      </c>
+      <c r="Y17" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z17" s="0" t="inlineStr">
+      <c r="Z17" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3011,11 +3132,11 @@
       </c>
       <c r="AB17" s="0" t="inlineStr">
         <is>
-          <t>SEL700355400</t>
+          <t>SEL700355401</t>
         </is>
       </c>
       <c r="AC17" s="0" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AD17" s="0"/>
       <c r="AE17" s="0" t="inlineStr">
@@ -3027,19 +3148,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>8844</v>
+        <v>9014</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>PCIU9052155</t>
+          <t>PCIU1304498</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
@@ -3059,17 +3180,17 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>KOTA WANGI</t>
+          <t>KOTA JELITA</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>3284/2017</t>
+          <t>2177/2018</t>
         </is>
       </c>
       <c r="J18" s="0" t="inlineStr">
         <is>
-          <t>M/S ROBIUL INTERNATIONAL EXPORT &amp;</t>
+          <t>UNILEVER BD LTD</t>
         </is>
       </c>
       <c r="K18" s="0" t="inlineStr">
@@ -3086,32 +3207,32 @@
       <c r="R18" s="0"/>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>SCRAP</t>
+          <t>SODIUM SULPHATE</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
         <is>
-          <t>W0392567</t>
+          <t>CN0041864</t>
         </is>
       </c>
       <c r="U18" s="0"/>
       <c r="V18" s="0" t="inlineStr">
         <is>
-          <t>2017-22553</t>
+          <t>2018-12461</t>
         </is>
       </c>
       <c r="W18" s="0" t="d">
-        <v>2017-11-18T00:00:00</v>
+        <v>2018-07-22T00:00:00</v>
       </c>
       <c r="X18" s="0" t="d">
-        <v>2017-11-20T00:00:00</v>
-      </c>
-      <c r="Y18" s="0" t="inlineStr">
+        <v>2018-07-25T00:00:00</v>
+      </c>
+      <c r="Y18" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z18" s="0" t="inlineStr">
+      <c r="Z18" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3121,11 +3242,11 @@
       </c>
       <c r="AB18" s="0" t="inlineStr">
         <is>
-          <t>SEL700355401</t>
+          <t>CKBB80025500</t>
         </is>
       </c>
       <c r="AC18" s="0" t="n">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="AD18" s="0"/>
       <c r="AE18" s="0" t="inlineStr">
@@ -3137,11 +3258,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>9014</v>
+        <v>9015</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>PCIU1304498</t>
+          <t>PCIU1149869</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -3201,13 +3322,13 @@
       </c>
       <c r="T19" s="0" t="inlineStr">
         <is>
-          <t>CN0041864</t>
+          <t>CN0041868</t>
         </is>
       </c>
       <c r="U19" s="0"/>
       <c r="V19" s="0" t="inlineStr">
         <is>
-          <t>2018-12461</t>
+          <t>2018-12465</t>
         </is>
       </c>
       <c r="W19" s="0" t="d">
@@ -3216,12 +3337,12 @@
       <c r="X19" s="0" t="d">
         <v>2018-07-25T00:00:00</v>
       </c>
-      <c r="Y19" s="0" t="inlineStr">
+      <c r="Y19" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z19" s="0" t="inlineStr">
+      <c r="Z19" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3247,11 +3368,11 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>9015</v>
+        <v>9016</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>PCIU1149869</t>
+          <t>PCIU2757478</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
@@ -3311,13 +3432,13 @@
       </c>
       <c r="T20" s="0" t="inlineStr">
         <is>
-          <t>CN0041868</t>
+          <t>CN0042242</t>
         </is>
       </c>
       <c r="U20" s="0"/>
       <c r="V20" s="0" t="inlineStr">
         <is>
-          <t>2018-12465</t>
+          <t>2018-12460</t>
         </is>
       </c>
       <c r="W20" s="0" t="d">
@@ -3326,12 +3447,12 @@
       <c r="X20" s="0" t="d">
         <v>2018-07-25T00:00:00</v>
       </c>
-      <c r="Y20" s="0" t="inlineStr">
+      <c r="Y20" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z20" s="0" t="inlineStr">
+      <c r="Z20" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3357,11 +3478,11 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>9016</v>
+        <v>9017</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>PCIU2757478</t>
+          <t>GLDU9598050</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
@@ -3421,13 +3542,13 @@
       </c>
       <c r="T21" s="0" t="inlineStr">
         <is>
-          <t>CN0042242</t>
+          <t>CN0145818</t>
         </is>
       </c>
       <c r="U21" s="0"/>
       <c r="V21" s="0" t="inlineStr">
         <is>
-          <t>2018-12460</t>
+          <t>2018-12458</t>
         </is>
       </c>
       <c r="W21" s="0" t="d">
@@ -3436,12 +3557,12 @@
       <c r="X21" s="0" t="d">
         <v>2018-07-25T00:00:00</v>
       </c>
-      <c r="Y21" s="0" t="inlineStr">
+      <c r="Y21" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z21" s="0" t="inlineStr">
+      <c r="Z21" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3467,11 +3588,11 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>9017</v>
+        <v>9018</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>GLDU9598050</t>
+          <t>PCIU1852043</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
@@ -3531,27 +3652,27 @@
       </c>
       <c r="T22" s="0" t="inlineStr">
         <is>
-          <t>CN0145818</t>
+          <t>CN0041867</t>
         </is>
       </c>
       <c r="U22" s="0"/>
       <c r="V22" s="0" t="inlineStr">
         <is>
-          <t>2018-12458</t>
+          <t>2018-12519</t>
         </is>
       </c>
       <c r="W22" s="0" t="d">
         <v>2018-07-22T00:00:00</v>
       </c>
       <c r="X22" s="0" t="d">
-        <v>2018-07-25T00:00:00</v>
-      </c>
-      <c r="Y22" s="0" t="inlineStr">
+        <v>2018-07-26T00:00:00</v>
+      </c>
+      <c r="Y22" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z22" s="0" t="inlineStr">
+      <c r="Z22" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3577,11 +3698,11 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>9018</v>
+        <v>9019</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>PCIU1852043</t>
+          <t>PCIU2743480</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
@@ -3641,27 +3762,27 @@
       </c>
       <c r="T23" s="0" t="inlineStr">
         <is>
-          <t>CN0041867</t>
+          <t>CN0228086</t>
         </is>
       </c>
       <c r="U23" s="0"/>
       <c r="V23" s="0" t="inlineStr">
         <is>
-          <t>2018-12519</t>
+          <t>2018-12597</t>
         </is>
       </c>
       <c r="W23" s="0" t="d">
         <v>2018-07-22T00:00:00</v>
       </c>
       <c r="X23" s="0" t="d">
-        <v>2018-07-26T00:00:00</v>
-      </c>
-      <c r="Y23" s="0" t="inlineStr">
+        <v>2018-07-27T00:00:00</v>
+      </c>
+      <c r="Y23" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z23" s="0" t="inlineStr">
+      <c r="Z23" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3687,11 +3808,11 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>9019</v>
+        <v>9020</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>PCIU2743480</t>
+          <t>PCIU2934932</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
@@ -3751,13 +3872,13 @@
       </c>
       <c r="T24" s="0" t="inlineStr">
         <is>
-          <t>CN0228086</t>
+          <t>CN0145817</t>
         </is>
       </c>
       <c r="U24" s="0"/>
       <c r="V24" s="0" t="inlineStr">
         <is>
-          <t>2018-12597</t>
+          <t>2018-12599</t>
         </is>
       </c>
       <c r="W24" s="0" t="d">
@@ -3766,12 +3887,12 @@
       <c r="X24" s="0" t="d">
         <v>2018-07-27T00:00:00</v>
       </c>
-      <c r="Y24" s="0" t="inlineStr">
+      <c r="Y24" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z24" s="0" t="inlineStr">
+      <c r="Z24" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3797,11 +3918,11 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>9020</v>
+        <v>9021</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>PCIU2934932</t>
+          <t>PCIU1141256</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
@@ -3861,13 +3982,13 @@
       </c>
       <c r="T25" s="0" t="inlineStr">
         <is>
-          <t>CN0145817</t>
+          <t>CN0041865</t>
         </is>
       </c>
       <c r="U25" s="0"/>
       <c r="V25" s="0" t="inlineStr">
         <is>
-          <t>2018-12599</t>
+          <t>2018-12596</t>
         </is>
       </c>
       <c r="W25" s="0" t="d">
@@ -3876,12 +3997,12 @@
       <c r="X25" s="0" t="d">
         <v>2018-07-27T00:00:00</v>
       </c>
-      <c r="Y25" s="0" t="inlineStr">
+      <c r="Y25" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z25" s="0" t="inlineStr">
+      <c r="Z25" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3907,11 +4028,11 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>9021</v>
+        <v>9022</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>PCIU1141256</t>
+          <t>PCIU2958111</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
@@ -3971,13 +4092,13 @@
       </c>
       <c r="T26" s="0" t="inlineStr">
         <is>
-          <t>CN0041865</t>
+          <t>CN0041866</t>
         </is>
       </c>
       <c r="U26" s="0"/>
       <c r="V26" s="0" t="inlineStr">
         <is>
-          <t>2018-12596</t>
+          <t>2018-12615</t>
         </is>
       </c>
       <c r="W26" s="0" t="d">
@@ -3986,12 +4107,12 @@
       <c r="X26" s="0" t="d">
         <v>2018-07-27T00:00:00</v>
       </c>
-      <c r="Y26" s="0" t="inlineStr">
+      <c r="Y26" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z26" s="0" t="inlineStr">
+      <c r="Z26" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4017,11 +4138,11 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>9022</v>
+        <v>9023</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>PCIU2958111</t>
+          <t>PCIU2924512</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
@@ -4081,13 +4202,13 @@
       </c>
       <c r="T27" s="0" t="inlineStr">
         <is>
-          <t>CN0041866</t>
+          <t>CN0041863</t>
         </is>
       </c>
       <c r="U27" s="0"/>
       <c r="V27" s="0" t="inlineStr">
         <is>
-          <t>2018-12615</t>
+          <t>2018-12598</t>
         </is>
       </c>
       <c r="W27" s="0" t="d">
@@ -4096,12 +4217,12 @@
       <c r="X27" s="0" t="d">
         <v>2018-07-27T00:00:00</v>
       </c>
-      <c r="Y27" s="0" t="inlineStr">
+      <c r="Y27" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z27" s="0" t="inlineStr">
+      <c r="Z27" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4127,11 +4248,11 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>9023</v>
+        <v>9024</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>PCIU2924512</t>
+          <t>PCIU1501692</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
@@ -4191,27 +4312,27 @@
       </c>
       <c r="T28" s="0" t="inlineStr">
         <is>
-          <t>CN0041863</t>
+          <t>CN0041874</t>
         </is>
       </c>
       <c r="U28" s="0"/>
       <c r="V28" s="0" t="inlineStr">
         <is>
-          <t>2018-12598</t>
+          <t>2018-12463</t>
         </is>
       </c>
       <c r="W28" s="0" t="d">
         <v>2018-07-22T00:00:00</v>
       </c>
       <c r="X28" s="0" t="d">
-        <v>2018-07-27T00:00:00</v>
-      </c>
-      <c r="Y28" s="0" t="inlineStr">
+        <v>2018-07-25T00:00:00</v>
+      </c>
+      <c r="Y28" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z28" s="0" t="inlineStr">
+      <c r="Z28" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4221,11 +4342,11 @@
       </c>
       <c r="AB28" s="0" t="inlineStr">
         <is>
-          <t>CKBB80025500</t>
+          <t>CKBB80025400</t>
         </is>
       </c>
       <c r="AC28" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD28" s="0"/>
       <c r="AE28" s="0" t="inlineStr">
@@ -4237,11 +4358,11 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>9024</v>
+        <v>9025</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>PCIU1501692</t>
+          <t>PCIU0014642</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
@@ -4301,13 +4422,13 @@
       </c>
       <c r="T29" s="0" t="inlineStr">
         <is>
-          <t>CN0041874</t>
+          <t>CN0041880</t>
         </is>
       </c>
       <c r="U29" s="0"/>
       <c r="V29" s="0" t="inlineStr">
         <is>
-          <t>2018-12463</t>
+          <t>2018-12462</t>
         </is>
       </c>
       <c r="W29" s="0" t="d">
@@ -4316,12 +4437,12 @@
       <c r="X29" s="0" t="d">
         <v>2018-07-25T00:00:00</v>
       </c>
-      <c r="Y29" s="0" t="inlineStr">
+      <c r="Y29" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z29" s="0" t="inlineStr">
+      <c r="Z29" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4347,11 +4468,11 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>9025</v>
+        <v>9026</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>PCIU0014642</t>
+          <t>PCIU1025976</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
@@ -4411,27 +4532,27 @@
       </c>
       <c r="T30" s="0" t="inlineStr">
         <is>
-          <t>CN0041880</t>
+          <t>CN0041875</t>
         </is>
       </c>
       <c r="U30" s="0"/>
       <c r="V30" s="0" t="inlineStr">
         <is>
-          <t>2018-12462</t>
+          <t>2018-12472</t>
         </is>
       </c>
       <c r="W30" s="0" t="d">
         <v>2018-07-22T00:00:00</v>
       </c>
       <c r="X30" s="0" t="d">
-        <v>2018-07-25T00:00:00</v>
-      </c>
-      <c r="Y30" s="0" t="inlineStr">
+        <v>2018-07-26T00:00:00</v>
+      </c>
+      <c r="Y30" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z30" s="0" t="inlineStr">
+      <c r="Z30" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4457,11 +4578,11 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>9026</v>
+        <v>9027</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>PCIU1025976</t>
+          <t>TEMU3900660</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
@@ -4521,13 +4642,13 @@
       </c>
       <c r="T31" s="0" t="inlineStr">
         <is>
-          <t>CN0041875</t>
+          <t>CN0145819</t>
         </is>
       </c>
       <c r="U31" s="0"/>
       <c r="V31" s="0" t="inlineStr">
         <is>
-          <t>2018-12472</t>
+          <t>2018-12473</t>
         </is>
       </c>
       <c r="W31" s="0" t="d">
@@ -4536,12 +4657,12 @@
       <c r="X31" s="0" t="d">
         <v>2018-07-26T00:00:00</v>
       </c>
-      <c r="Y31" s="0" t="inlineStr">
+      <c r="Y31" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z31" s="0" t="inlineStr">
+      <c r="Z31" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4567,11 +4688,11 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>9027</v>
+        <v>9028</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>TEMU3900660</t>
+          <t>TRHU1174583</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
@@ -4631,13 +4752,13 @@
       </c>
       <c r="T32" s="0" t="inlineStr">
         <is>
-          <t>CN0145819</t>
+          <t>CN0041876</t>
         </is>
       </c>
       <c r="U32" s="0"/>
       <c r="V32" s="0" t="inlineStr">
         <is>
-          <t>2018-12473</t>
+          <t>2018-12474</t>
         </is>
       </c>
       <c r="W32" s="0" t="d">
@@ -4646,12 +4767,12 @@
       <c r="X32" s="0" t="d">
         <v>2018-07-26T00:00:00</v>
       </c>
-      <c r="Y32" s="0" t="inlineStr">
+      <c r="Y32" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z32" s="0" t="inlineStr">
+      <c r="Z32" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4677,11 +4798,11 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>9028</v>
+        <v>9029</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>TRHU1174583</t>
+          <t>PCIU0025312</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
@@ -4741,13 +4862,13 @@
       </c>
       <c r="T33" s="0" t="inlineStr">
         <is>
-          <t>CN0041876</t>
+          <t>CN0041877</t>
         </is>
       </c>
       <c r="U33" s="0"/>
       <c r="V33" s="0" t="inlineStr">
         <is>
-          <t>2018-12474</t>
+          <t>2018-12518</t>
         </is>
       </c>
       <c r="W33" s="0" t="d">
@@ -4756,12 +4877,12 @@
       <c r="X33" s="0" t="d">
         <v>2018-07-26T00:00:00</v>
       </c>
-      <c r="Y33" s="0" t="inlineStr">
+      <c r="Y33" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z33" s="0" t="inlineStr">
+      <c r="Z33" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4787,11 +4908,11 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>9029</v>
+        <v>9030</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>PCIU0025312</t>
+          <t>BMOU2598130</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
@@ -4851,27 +4972,27 @@
       </c>
       <c r="T34" s="0" t="inlineStr">
         <is>
-          <t>CN0041877</t>
+          <t>CN0041871</t>
         </is>
       </c>
       <c r="U34" s="0"/>
       <c r="V34" s="0" t="inlineStr">
         <is>
-          <t>2018-12518</t>
+          <t>2018-12595</t>
         </is>
       </c>
       <c r="W34" s="0" t="d">
         <v>2018-07-22T00:00:00</v>
       </c>
       <c r="X34" s="0" t="d">
-        <v>2018-07-26T00:00:00</v>
-      </c>
-      <c r="Y34" s="0" t="inlineStr">
+        <v>2018-07-27T00:00:00</v>
+      </c>
+      <c r="Y34" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z34" s="0" t="inlineStr">
+      <c r="Z34" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4897,11 +5018,11 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>9030</v>
+        <v>9031</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>BMOU2598130</t>
+          <t>PCIU2666212</t>
         </is>
       </c>
       <c r="C35" s="0" t="n">
@@ -4961,13 +5082,13 @@
       </c>
       <c r="T35" s="0" t="inlineStr">
         <is>
-          <t>CN0041871</t>
+          <t>CN0041873</t>
         </is>
       </c>
       <c r="U35" s="0"/>
       <c r="V35" s="0" t="inlineStr">
         <is>
-          <t>2018-12595</t>
+          <t>2018-12613</t>
         </is>
       </c>
       <c r="W35" s="0" t="d">
@@ -4976,12 +5097,12 @@
       <c r="X35" s="0" t="d">
         <v>2018-07-27T00:00:00</v>
       </c>
-      <c r="Y35" s="0" t="inlineStr">
+      <c r="Y35" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z35" s="0" t="inlineStr">
+      <c r="Z35" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5007,11 +5128,11 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>9031</v>
+        <v>9032</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>PCIU2666212</t>
+          <t>PCIU2834131</t>
         </is>
       </c>
       <c r="C36" s="0" t="n">
@@ -5071,13 +5192,13 @@
       </c>
       <c r="T36" s="0" t="inlineStr">
         <is>
-          <t>CN0041873</t>
+          <t>CN0041878</t>
         </is>
       </c>
       <c r="U36" s="0"/>
       <c r="V36" s="0" t="inlineStr">
         <is>
-          <t>2018-12613</t>
+          <t>2018-12614</t>
         </is>
       </c>
       <c r="W36" s="0" t="d">
@@ -5086,12 +5207,12 @@
       <c r="X36" s="0" t="d">
         <v>2018-07-27T00:00:00</v>
       </c>
-      <c r="Y36" s="0" t="inlineStr">
+      <c r="Y36" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z36" s="0" t="inlineStr">
+      <c r="Z36" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5117,11 +5238,11 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>9032</v>
+        <v>9033</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>PCIU2834131</t>
+          <t>CAIU3629956</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
@@ -5181,13 +5302,13 @@
       </c>
       <c r="T37" s="0" t="inlineStr">
         <is>
-          <t>CN0041878</t>
+          <t>CN0041869</t>
         </is>
       </c>
       <c r="U37" s="0"/>
       <c r="V37" s="0" t="inlineStr">
         <is>
-          <t>2018-12614</t>
+          <t>2018-12612</t>
         </is>
       </c>
       <c r="W37" s="0" t="d">
@@ -5196,12 +5317,12 @@
       <c r="X37" s="0" t="d">
         <v>2018-07-27T00:00:00</v>
       </c>
-      <c r="Y37" s="0" t="inlineStr">
+      <c r="Y37" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z37" s="0" t="inlineStr">
+      <c r="Z37" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5227,11 +5348,11 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>9033</v>
+        <v>9160</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>CAIU3629956</t>
+          <t>PCIU1170721</t>
         </is>
       </c>
       <c r="C38" s="0" t="n">
@@ -5259,17 +5380,17 @@
       </c>
       <c r="H38" s="0" t="inlineStr">
         <is>
-          <t>KOTA JELITA</t>
+          <t>KOTA AZAM</t>
         </is>
       </c>
       <c r="I38" s="0" t="inlineStr">
         <is>
-          <t>2177/2018</t>
+          <t>2415/2018</t>
         </is>
       </c>
       <c r="J38" s="0" t="inlineStr">
         <is>
-          <t>UNILEVER BD LTD</t>
+          <t>ALIF INTERNATIONAL AGENCY</t>
         </is>
       </c>
       <c r="K38" s="0" t="inlineStr">
@@ -5286,32 +5407,32 @@
       <c r="R38" s="0"/>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>SODIUM SULPHATE</t>
+          <t>ANIMAL FEED</t>
         </is>
       </c>
       <c r="T38" s="0" t="inlineStr">
         <is>
-          <t>CN0041869</t>
+          <t>SG0148840</t>
         </is>
       </c>
       <c r="U38" s="0"/>
       <c r="V38" s="0" t="inlineStr">
         <is>
-          <t>2018-12612</t>
+          <t>2018-14228</t>
         </is>
       </c>
       <c r="W38" s="0" t="d">
-        <v>2018-07-22T00:00:00</v>
+        <v>2018-08-18T00:00:00</v>
       </c>
       <c r="X38" s="0" t="d">
-        <v>2018-07-27T00:00:00</v>
-      </c>
-      <c r="Y38" s="0" t="inlineStr">
+        <v>2018-09-01T00:00:00</v>
+      </c>
+      <c r="Y38" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z38" s="0" t="inlineStr">
+      <c r="Z38" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5321,11 +5442,11 @@
       </c>
       <c r="AB38" s="0" t="inlineStr">
         <is>
-          <t>CKBB80025400</t>
+          <t>SGN800889400</t>
         </is>
       </c>
       <c r="AC38" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="AD38" s="0"/>
       <c r="AE38" s="0" t="inlineStr">
@@ -5337,11 +5458,11 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>9160</v>
+        <v>9299</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>PCIU1170721</t>
+          <t>PCIU1342878</t>
         </is>
       </c>
       <c r="C39" s="0" t="n">
@@ -5374,12 +5495,12 @@
       </c>
       <c r="I39" s="0" t="inlineStr">
         <is>
-          <t>2415/2018</t>
+          <t>2630/2018</t>
         </is>
       </c>
       <c r="J39" s="0" t="inlineStr">
         <is>
-          <t>ALIF INTERNATIONAL AGENCY</t>
+          <t>ZABER  &amp;  ZUBAIR  FABRICS  LTD.</t>
         </is>
       </c>
       <c r="K39" s="0" t="inlineStr">
@@ -5396,32 +5517,32 @@
       <c r="R39" s="0"/>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>ANIMAL FEED</t>
+          <t>SODA ASH</t>
         </is>
       </c>
       <c r="T39" s="0" t="inlineStr">
         <is>
-          <t>SG0148840</t>
+          <t>CN0443258</t>
         </is>
       </c>
       <c r="U39" s="0"/>
       <c r="V39" s="0" t="inlineStr">
         <is>
-          <t>2018-14228</t>
+          <t>2018-15025</t>
         </is>
       </c>
       <c r="W39" s="0" t="d">
-        <v>2018-08-18T00:00:00</v>
+        <v>2018-09-05T00:00:00</v>
       </c>
       <c r="X39" s="0" t="d">
-        <v>2018-09-01T00:00:00</v>
-      </c>
-      <c r="Y39" s="0" t="inlineStr">
+        <v>2018-09-08T00:00:00</v>
+      </c>
+      <c r="Y39" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z39" s="0" t="inlineStr">
+      <c r="Z39" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5431,11 +5552,11 @@
       </c>
       <c r="AB39" s="0" t="inlineStr">
         <is>
-          <t>SGN800889400</t>
+          <t>LYBM80089600</t>
         </is>
       </c>
       <c r="AC39" s="0" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AD39" s="0"/>
       <c r="AE39" s="0" t="inlineStr">
@@ -5447,11 +5568,11 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>9299</v>
+        <v>9300</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>PCIU1342878</t>
+          <t>BMOU2588132</t>
         </is>
       </c>
       <c r="C40" s="0" t="n">
@@ -5511,27 +5632,27 @@
       </c>
       <c r="T40" s="0" t="inlineStr">
         <is>
-          <t>CN0443258</t>
+          <t>CN0443260</t>
         </is>
       </c>
       <c r="U40" s="0"/>
       <c r="V40" s="0" t="inlineStr">
         <is>
-          <t>2018-15025</t>
+          <t>2018-15138</t>
         </is>
       </c>
       <c r="W40" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="X40" s="0" t="d">
-        <v>2018-09-08T00:00:00</v>
-      </c>
-      <c r="Y40" s="0" t="inlineStr">
+        <v>2018-09-09T00:00:00</v>
+      </c>
+      <c r="Y40" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z40" s="0" t="inlineStr">
+      <c r="Z40" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5557,11 +5678,11 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>9300</v>
+        <v>9301</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>BMOU2588132</t>
+          <t>PCIU1629220</t>
         </is>
       </c>
       <c r="C41" s="0" t="n">
@@ -5621,27 +5742,27 @@
       </c>
       <c r="T41" s="0" t="inlineStr">
         <is>
-          <t>CN0443260</t>
+          <t>CN0443256</t>
         </is>
       </c>
       <c r="U41" s="0"/>
       <c r="V41" s="0" t="inlineStr">
         <is>
-          <t>2018-15138</t>
+          <t>2018-15026</t>
         </is>
       </c>
       <c r="W41" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="X41" s="0" t="d">
-        <v>2018-09-09T00:00:00</v>
-      </c>
-      <c r="Y41" s="0" t="inlineStr">
+        <v>2018-09-10T00:00:00</v>
+      </c>
+      <c r="Y41" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z41" s="0" t="inlineStr">
+      <c r="Z41" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5667,11 +5788,11 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>9301</v>
+        <v>9747</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>PCIU1629220</t>
+          <t>PCIU2912851</t>
         </is>
       </c>
       <c r="C42" s="0" t="n">
@@ -5731,27 +5852,27 @@
       </c>
       <c r="T42" s="0" t="inlineStr">
         <is>
-          <t>CN0443256</t>
+          <t>CN0443259</t>
         </is>
       </c>
       <c r="U42" s="0"/>
       <c r="V42" s="0" t="inlineStr">
         <is>
-          <t>2018-15026</t>
+          <t>2018-15165</t>
         </is>
       </c>
       <c r="W42" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="X42" s="0" t="d">
-        <v>2018-09-10T00:00:00</v>
-      </c>
-      <c r="Y42" s="0" t="inlineStr">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="Y42" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z42" s="0" t="inlineStr">
+      <c r="Z42" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5777,11 +5898,11 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>9747</v>
+        <v>9304</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>PCIU2912851</t>
+          <t>PCIU1675288</t>
         </is>
       </c>
       <c r="C43" s="0" t="n">
@@ -5841,13 +5962,13 @@
       </c>
       <c r="T43" s="0" t="inlineStr">
         <is>
-          <t>CN0443259</t>
+          <t>CN0443257</t>
         </is>
       </c>
       <c r="U43" s="0"/>
       <c r="V43" s="0" t="inlineStr">
         <is>
-          <t>2018-15165</t>
+          <t>2018-15164</t>
         </is>
       </c>
       <c r="W43" s="0" t="d">
@@ -5856,12 +5977,12 @@
       <c r="X43" s="0" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="Y43" s="0" t="inlineStr">
+      <c r="Y43" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z43" s="0" t="inlineStr">
+      <c r="Z43" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5887,11 +6008,11 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>9304</v>
+        <v>9305</v>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>PCIU1675288</t>
+          <t>PCIU2679858</t>
         </is>
       </c>
       <c r="C44" s="0" t="n">
@@ -5919,17 +6040,17 @@
       </c>
       <c r="H44" s="0" t="inlineStr">
         <is>
-          <t>KOTA AZAM</t>
+          <t>KOTA JELITA</t>
         </is>
       </c>
       <c r="I44" s="0" t="inlineStr">
         <is>
-          <t>2630/2018</t>
+          <t>2600/2018</t>
         </is>
       </c>
       <c r="J44" s="0" t="inlineStr">
         <is>
-          <t>ZABER  &amp;  ZUBAIR  FABRICS  LTD.</t>
+          <t>SANJANA  FABRICS  LIMITED</t>
         </is>
       </c>
       <c r="K44" s="0" t="inlineStr">
@@ -5946,32 +6067,32 @@
       <c r="R44" s="0"/>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>SODA ASH</t>
+          <t>SODIUM SULPHATE</t>
         </is>
       </c>
       <c r="T44" s="0" t="inlineStr">
         <is>
-          <t>CN0443257</t>
+          <t>CN0440355</t>
         </is>
       </c>
       <c r="U44" s="0"/>
       <c r="V44" s="0" t="inlineStr">
         <is>
-          <t>2018-15164</t>
+          <t>2018-15027</t>
         </is>
       </c>
       <c r="W44" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="X44" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="Y44" s="0" t="inlineStr">
+        <v>2018-09-08T00:00:00</v>
+      </c>
+      <c r="Y44" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z44" s="0" t="inlineStr">
+      <c r="Z44" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5981,11 +6102,11 @@
       </c>
       <c r="AB44" s="0" t="inlineStr">
         <is>
-          <t>LYBM80089600</t>
+          <t>NKAV70027400</t>
         </is>
       </c>
       <c r="AC44" s="0" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AD44" s="0"/>
       <c r="AE44" s="0" t="inlineStr">
@@ -5997,11 +6118,11 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>9305</v>
+        <v>9306</v>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>PCIU2679858</t>
+          <t>PCIU1387548</t>
         </is>
       </c>
       <c r="C45" s="0" t="n">
@@ -6061,13 +6182,13 @@
       </c>
       <c r="T45" s="0" t="inlineStr">
         <is>
-          <t>CN0440355</t>
+          <t>CN0440358</t>
         </is>
       </c>
       <c r="U45" s="0"/>
       <c r="V45" s="0" t="inlineStr">
         <is>
-          <t>2018-15027</t>
+          <t>2018-15044</t>
         </is>
       </c>
       <c r="W45" s="0" t="d">
@@ -6076,12 +6197,12 @@
       <c r="X45" s="0" t="d">
         <v>2018-09-08T00:00:00</v>
       </c>
-      <c r="Y45" s="0" t="inlineStr">
+      <c r="Y45" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z45" s="0" t="inlineStr">
+      <c r="Z45" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6107,11 +6228,11 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>9306</v>
+        <v>9307</v>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>PCIU1387548</t>
+          <t>PCIU2048699</t>
         </is>
       </c>
       <c r="C46" s="0" t="n">
@@ -6171,13 +6292,13 @@
       </c>
       <c r="T46" s="0" t="inlineStr">
         <is>
-          <t>CN0440358</t>
+          <t>CN0440286</t>
         </is>
       </c>
       <c r="U46" s="0"/>
       <c r="V46" s="0" t="inlineStr">
         <is>
-          <t>2018-15044</t>
+          <t>2018-15075</t>
         </is>
       </c>
       <c r="W46" s="0" t="d">
@@ -6186,12 +6307,12 @@
       <c r="X46" s="0" t="d">
         <v>2018-09-08T00:00:00</v>
       </c>
-      <c r="Y46" s="0" t="inlineStr">
+      <c r="Y46" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z46" s="0" t="inlineStr">
+      <c r="Z46" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6217,11 +6338,11 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>9307</v>
+        <v>9308</v>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>PCIU2048699</t>
+          <t>PCIU2988380</t>
         </is>
       </c>
       <c r="C47" s="0" t="n">
@@ -6281,13 +6402,13 @@
       </c>
       <c r="T47" s="0" t="inlineStr">
         <is>
-          <t>CN0440286</t>
+          <t>CN0440353</t>
         </is>
       </c>
       <c r="U47" s="0"/>
       <c r="V47" s="0" t="inlineStr">
         <is>
-          <t>2018-15075</t>
+          <t>2018-15076</t>
         </is>
       </c>
       <c r="W47" s="0" t="d">
@@ -6296,12 +6417,12 @@
       <c r="X47" s="0" t="d">
         <v>2018-09-08T00:00:00</v>
       </c>
-      <c r="Y47" s="0" t="inlineStr">
+      <c r="Y47" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z47" s="0" t="inlineStr">
+      <c r="Z47" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6327,11 +6448,11 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>9308</v>
+        <v>9309</v>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>PCIU2988380</t>
+          <t>PCIU2808976</t>
         </is>
       </c>
       <c r="C48" s="0" t="n">
@@ -6391,27 +6512,27 @@
       </c>
       <c r="T48" s="0" t="inlineStr">
         <is>
-          <t>CN0440353</t>
+          <t>CN0440352</t>
         </is>
       </c>
       <c r="U48" s="0"/>
       <c r="V48" s="0" t="inlineStr">
         <is>
-          <t>2018-15076</t>
+          <t>2018-15160</t>
         </is>
       </c>
       <c r="W48" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="X48" s="0" t="d">
-        <v>2018-09-08T00:00:00</v>
-      </c>
-      <c r="Y48" s="0" t="inlineStr">
+        <v>2018-09-09T00:00:00</v>
+      </c>
+      <c r="Y48" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z48" s="0" t="inlineStr">
+      <c r="Z48" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6437,11 +6558,11 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>9309</v>
+        <v>9310</v>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>PCIU2808976</t>
+          <t>PCIU2204981</t>
         </is>
       </c>
       <c r="C49" s="0" t="n">
@@ -6501,27 +6622,27 @@
       </c>
       <c r="T49" s="0" t="inlineStr">
         <is>
-          <t>CN0440352</t>
+          <t>CN0224594</t>
         </is>
       </c>
       <c r="U49" s="0"/>
       <c r="V49" s="0" t="inlineStr">
         <is>
-          <t>2018-15160</t>
+          <t>2018-15184</t>
         </is>
       </c>
       <c r="W49" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="X49" s="0" t="d">
-        <v>2018-09-09T00:00:00</v>
-      </c>
-      <c r="Y49" s="0" t="inlineStr">
+        <v>2018-09-10T00:00:00</v>
+      </c>
+      <c r="Y49" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z49" s="0" t="inlineStr">
+      <c r="Z49" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6547,11 +6668,11 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>9310</v>
+        <v>9311</v>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>PCIU2204981</t>
+          <t>PCIU2651594</t>
         </is>
       </c>
       <c r="C50" s="0" t="n">
@@ -6611,27 +6732,27 @@
       </c>
       <c r="T50" s="0" t="inlineStr">
         <is>
-          <t>CN0224594</t>
+          <t/>
         </is>
       </c>
       <c r="U50" s="0"/>
       <c r="V50" s="0" t="inlineStr">
         <is>
-          <t>2018-15184</t>
+          <t>2018-15296</t>
         </is>
       </c>
       <c r="W50" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="X50" s="0" t="d">
-        <v>2018-09-10T00:00:00</v>
-      </c>
-      <c r="Y50" s="0" t="inlineStr">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="Y50" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z50" s="0" t="inlineStr">
+      <c r="Z50" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6657,11 +6778,11 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>9311</v>
+        <v>9606</v>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>PCIU2651594</t>
+          <t>PCIU2958620</t>
         </is>
       </c>
       <c r="C51" s="0" t="n">
@@ -6689,17 +6810,17 @@
       </c>
       <c r="H51" s="0" t="inlineStr">
         <is>
-          <t>KOTA JELITA</t>
+          <t>KOTA ANGGERIK</t>
         </is>
       </c>
       <c r="I51" s="0" t="inlineStr">
         <is>
-          <t>2600/2018</t>
+          <t>2742/2018</t>
         </is>
       </c>
       <c r="J51" s="0" t="inlineStr">
         <is>
-          <t>SANJANA  FABRICS  LIMITED</t>
+          <t>SHODESH SHIPPING &amp; LOGISTIC</t>
         </is>
       </c>
       <c r="K51" s="0" t="inlineStr">
@@ -6721,27 +6842,27 @@
       </c>
       <c r="T51" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>CN0343442</t>
         </is>
       </c>
       <c r="U51" s="0"/>
       <c r="V51" s="0" t="inlineStr">
         <is>
-          <t>2018-15296</t>
+          <t>2018-15475</t>
         </is>
       </c>
       <c r="W51" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
+        <v>2018-09-13T00:00:00</v>
       </c>
       <c r="X51" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="Y51" s="0" t="inlineStr">
+        <v>2018-09-14T00:00:00</v>
+      </c>
+      <c r="Y51" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z51" s="0" t="inlineStr">
+      <c r="Z51" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6751,11 +6872,11 @@
       </c>
       <c r="AB51" s="0" t="inlineStr">
         <is>
-          <t>NKAV70027400</t>
+          <t>WUAN80023900</t>
         </is>
       </c>
       <c r="AC51" s="0" t="n">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="AD51" s="0"/>
       <c r="AE51" s="0" t="inlineStr">
@@ -6767,11 +6888,11 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>9606</v>
+        <v>9607</v>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>PCIU2958620</t>
+          <t>PCIU1746822</t>
         </is>
       </c>
       <c r="C52" s="0" t="n">
@@ -6831,13 +6952,13 @@
       </c>
       <c r="T52" s="0" t="inlineStr">
         <is>
-          <t>CN0343442</t>
+          <t>CN0343450</t>
         </is>
       </c>
       <c r="U52" s="0"/>
       <c r="V52" s="0" t="inlineStr">
         <is>
-          <t>2018-15475</t>
+          <t>2018-15474</t>
         </is>
       </c>
       <c r="W52" s="0" t="d">
@@ -6846,12 +6967,12 @@
       <c r="X52" s="0" t="d">
         <v>2018-09-14T00:00:00</v>
       </c>
-      <c r="Y52" s="0" t="inlineStr">
+      <c r="Y52" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z52" s="0" t="inlineStr">
+      <c r="Z52" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6877,11 +6998,11 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>9607</v>
+        <v>9608</v>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>PCIU1746822</t>
+          <t>PCIU1729764</t>
         </is>
       </c>
       <c r="C53" s="0" t="n">
@@ -6941,13 +7062,13 @@
       </c>
       <c r="T53" s="0" t="inlineStr">
         <is>
-          <t>CN0343450</t>
+          <t>CN0343445</t>
         </is>
       </c>
       <c r="U53" s="0"/>
       <c r="V53" s="0" t="inlineStr">
         <is>
-          <t>2018-15474</t>
+          <t>2018-15473</t>
         </is>
       </c>
       <c r="W53" s="0" t="d">
@@ -6956,12 +7077,12 @@
       <c r="X53" s="0" t="d">
         <v>2018-09-14T00:00:00</v>
       </c>
-      <c r="Y53" s="0" t="inlineStr">
+      <c r="Y53" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z53" s="0" t="inlineStr">
+      <c r="Z53" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6987,11 +7108,11 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>9608</v>
+        <v>9609</v>
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>PCIU1729764</t>
+          <t>PCIU1495183</t>
         </is>
       </c>
       <c r="C54" s="0" t="n">
@@ -7051,13 +7172,13 @@
       </c>
       <c r="T54" s="0" t="inlineStr">
         <is>
-          <t>CN0343445</t>
+          <t>CN0343441</t>
         </is>
       </c>
       <c r="U54" s="0"/>
       <c r="V54" s="0" t="inlineStr">
         <is>
-          <t>2018-15473</t>
+          <t>2018-15471</t>
         </is>
       </c>
       <c r="W54" s="0" t="d">
@@ -7066,12 +7187,12 @@
       <c r="X54" s="0" t="d">
         <v>2018-09-14T00:00:00</v>
       </c>
-      <c r="Y54" s="0" t="inlineStr">
+      <c r="Y54" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z54" s="0" t="inlineStr">
+      <c r="Z54" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7097,11 +7218,11 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>9609</v>
+        <v>9610</v>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>PCIU1495183</t>
+          <t>PCIU1624866</t>
         </is>
       </c>
       <c r="C55" s="0" t="n">
@@ -7161,13 +7282,13 @@
       </c>
       <c r="T55" s="0" t="inlineStr">
         <is>
-          <t>CN0343441</t>
+          <t>CN0343443</t>
         </is>
       </c>
       <c r="U55" s="0"/>
       <c r="V55" s="0" t="inlineStr">
         <is>
-          <t>2018-15471</t>
+          <t>2018-15472</t>
         </is>
       </c>
       <c r="W55" s="0" t="d">
@@ -7176,12 +7297,12 @@
       <c r="X55" s="0" t="d">
         <v>2018-09-14T00:00:00</v>
       </c>
-      <c r="Y55" s="0" t="inlineStr">
+      <c r="Y55" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z55" s="0" t="inlineStr">
+      <c r="Z55" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7207,11 +7328,11 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>9610</v>
+        <v>9611</v>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>PCIU1624866</t>
+          <t>PCIU1996966</t>
         </is>
       </c>
       <c r="C56" s="0" t="n">
@@ -7271,13 +7392,13 @@
       </c>
       <c r="T56" s="0" t="inlineStr">
         <is>
-          <t>CN0343443</t>
+          <t>CN0343447</t>
         </is>
       </c>
       <c r="U56" s="0"/>
       <c r="V56" s="0" t="inlineStr">
         <is>
-          <t>2018-15472</t>
+          <t>2018-15476</t>
         </is>
       </c>
       <c r="W56" s="0" t="d">
@@ -7286,12 +7407,12 @@
       <c r="X56" s="0" t="d">
         <v>2018-09-14T00:00:00</v>
       </c>
-      <c r="Y56" s="0" t="inlineStr">
+      <c r="Y56" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z56" s="0" t="inlineStr">
+      <c r="Z56" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7317,11 +7438,11 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>9611</v>
+        <v>9612</v>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>PCIU1996966</t>
+          <t>SEGU1700918</t>
         </is>
       </c>
       <c r="C57" s="0" t="n">
@@ -7381,27 +7502,27 @@
       </c>
       <c r="T57" s="0" t="inlineStr">
         <is>
-          <t>CN0343447</t>
+          <t>CN0343449</t>
         </is>
       </c>
       <c r="U57" s="0"/>
       <c r="V57" s="0" t="inlineStr">
         <is>
-          <t>2018-15476</t>
+          <t>2018-15524</t>
         </is>
       </c>
       <c r="W57" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
       <c r="X57" s="0" t="d">
-        <v>2018-09-14T00:00:00</v>
-      </c>
-      <c r="Y57" s="0" t="inlineStr">
+        <v>2018-09-15T00:00:00</v>
+      </c>
+      <c r="Y57" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z57" s="0" t="inlineStr">
+      <c r="Z57" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7427,11 +7548,11 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>9612</v>
+        <v>9613</v>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>SEGU1700918</t>
+          <t>PCIU1616177</t>
         </is>
       </c>
       <c r="C58" s="0" t="n">
@@ -7491,13 +7612,13 @@
       </c>
       <c r="T58" s="0" t="inlineStr">
         <is>
-          <t>CN0343449</t>
+          <t>CN0343448</t>
         </is>
       </c>
       <c r="U58" s="0"/>
       <c r="V58" s="0" t="inlineStr">
         <is>
-          <t>2018-15524</t>
+          <t>2018-15523</t>
         </is>
       </c>
       <c r="W58" s="0" t="d">
@@ -7506,12 +7627,12 @@
       <c r="X58" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y58" s="0" t="inlineStr">
+      <c r="Y58" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z58" s="0" t="inlineStr">
+      <c r="Z58" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7537,11 +7658,11 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>9613</v>
+        <v>9614</v>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>PCIU1616177</t>
+          <t>CAIU3645617</t>
         </is>
       </c>
       <c r="C59" s="0" t="n">
@@ -7601,13 +7722,13 @@
       </c>
       <c r="T59" s="0" t="inlineStr">
         <is>
-          <t>CN0343448</t>
+          <t>CN0343444</t>
         </is>
       </c>
       <c r="U59" s="0"/>
       <c r="V59" s="0" t="inlineStr">
         <is>
-          <t>2018-15523</t>
+          <t>2018-15516</t>
         </is>
       </c>
       <c r="W59" s="0" t="d">
@@ -7616,12 +7737,12 @@
       <c r="X59" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y59" s="0" t="inlineStr">
+      <c r="Y59" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z59" s="0" t="inlineStr">
+      <c r="Z59" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7647,11 +7768,11 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>9614</v>
+        <v>9615</v>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>CAIU3645617</t>
+          <t>TEMU4451420</t>
         </is>
       </c>
       <c r="C60" s="0" t="n">
@@ -7711,13 +7832,13 @@
       </c>
       <c r="T60" s="0" t="inlineStr">
         <is>
-          <t>CN0343444</t>
+          <t>CN0343446</t>
         </is>
       </c>
       <c r="U60" s="0"/>
       <c r="V60" s="0" t="inlineStr">
         <is>
-          <t>2018-15516</t>
+          <t>2018-15525</t>
         </is>
       </c>
       <c r="W60" s="0" t="d">
@@ -7726,12 +7847,12 @@
       <c r="X60" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y60" s="0" t="inlineStr">
+      <c r="Y60" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z60" s="0" t="inlineStr">
+      <c r="Z60" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7757,11 +7878,11 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>9615</v>
+        <v>9616</v>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>TEMU4451420</t>
+          <t>PCIU2761483</t>
         </is>
       </c>
       <c r="C61" s="0" t="n">
@@ -7821,27 +7942,27 @@
       </c>
       <c r="T61" s="0" t="inlineStr">
         <is>
-          <t>CN0343446</t>
+          <t>CN0343758</t>
         </is>
       </c>
       <c r="U61" s="0"/>
       <c r="V61" s="0" t="inlineStr">
         <is>
-          <t>2018-15525</t>
+          <t>2018-15477</t>
         </is>
       </c>
       <c r="W61" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
       <c r="X61" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="Y61" s="0" t="inlineStr">
+        <v>2018-09-14T00:00:00</v>
+      </c>
+      <c r="Y61" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z61" s="0" t="inlineStr">
+      <c r="Z61" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7851,11 +7972,11 @@
       </c>
       <c r="AB61" s="0" t="inlineStr">
         <is>
-          <t>WUAN80023900</t>
+          <t>WUAN80023800</t>
         </is>
       </c>
       <c r="AC61" s="0" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AD61" s="0"/>
       <c r="AE61" s="0" t="inlineStr">
@@ -7867,11 +7988,11 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>9616</v>
+        <v>9617</v>
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>PCIU2761483</t>
+          <t>PCIU1172832</t>
         </is>
       </c>
       <c r="C62" s="0" t="n">
@@ -7931,27 +8052,27 @@
       </c>
       <c r="T62" s="0" t="inlineStr">
         <is>
-          <t>CN0343758</t>
+          <t>CN0343752</t>
         </is>
       </c>
       <c r="U62" s="0"/>
       <c r="V62" s="0" t="inlineStr">
         <is>
-          <t>2018-15477</t>
+          <t>2018-15521</t>
         </is>
       </c>
       <c r="W62" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
       <c r="X62" s="0" t="d">
-        <v>2018-09-14T00:00:00</v>
-      </c>
-      <c r="Y62" s="0" t="inlineStr">
+        <v>2018-09-15T00:00:00</v>
+      </c>
+      <c r="Y62" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z62" s="0" t="inlineStr">
+      <c r="Z62" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7977,11 +8098,11 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>9617</v>
+        <v>9618</v>
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>PCIU1172832</t>
+          <t>PCIU1589699</t>
         </is>
       </c>
       <c r="C63" s="0" t="n">
@@ -8041,13 +8162,13 @@
       </c>
       <c r="T63" s="0" t="inlineStr">
         <is>
-          <t>CN0343752</t>
+          <t>CN0343759</t>
         </is>
       </c>
       <c r="U63" s="0"/>
       <c r="V63" s="0" t="inlineStr">
         <is>
-          <t>2018-15521</t>
+          <t>2018-15515</t>
         </is>
       </c>
       <c r="W63" s="0" t="d">
@@ -8056,12 +8177,12 @@
       <c r="X63" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y63" s="0" t="inlineStr">
+      <c r="Y63" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z63" s="0" t="inlineStr">
+      <c r="Z63" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -8087,11 +8208,11 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>9618</v>
+        <v>9619</v>
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>PCIU1589699</t>
+          <t>PCIU1400871</t>
         </is>
       </c>
       <c r="C64" s="0" t="n">
@@ -8151,13 +8272,13 @@
       </c>
       <c r="T64" s="0" t="inlineStr">
         <is>
-          <t>CN0343759</t>
+          <t>CN0343756</t>
         </is>
       </c>
       <c r="U64" s="0"/>
       <c r="V64" s="0" t="inlineStr">
         <is>
-          <t>2018-15515</t>
+          <t>2018-15548</t>
         </is>
       </c>
       <c r="W64" s="0" t="d">
@@ -8166,12 +8287,12 @@
       <c r="X64" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y64" s="0" t="inlineStr">
+      <c r="Y64" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z64" s="0" t="inlineStr">
+      <c r="Z64" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -8197,11 +8318,11 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>9619</v>
+        <v>9620</v>
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>PCIU1400871</t>
+          <t>PCIU1948968</t>
         </is>
       </c>
       <c r="C65" s="0" t="n">
@@ -8261,13 +8382,13 @@
       </c>
       <c r="T65" s="0" t="inlineStr">
         <is>
-          <t>CN0343756</t>
+          <t>CN0343753</t>
         </is>
       </c>
       <c r="U65" s="0"/>
       <c r="V65" s="0" t="inlineStr">
         <is>
-          <t>2018-15548</t>
+          <t>2018-15542</t>
         </is>
       </c>
       <c r="W65" s="0" t="d">
@@ -8276,12 +8397,12 @@
       <c r="X65" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y65" s="0" t="inlineStr">
+      <c r="Y65" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z65" s="0" t="inlineStr">
+      <c r="Z65" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -8307,11 +8428,11 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>9620</v>
+        <v>9621</v>
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>PCIU1948968</t>
+          <t>PCIU1324914</t>
         </is>
       </c>
       <c r="C66" s="0" t="n">
@@ -8371,13 +8492,13 @@
       </c>
       <c r="T66" s="0" t="inlineStr">
         <is>
-          <t>CN0343753</t>
+          <t>CN0343754</t>
         </is>
       </c>
       <c r="U66" s="0"/>
       <c r="V66" s="0" t="inlineStr">
         <is>
-          <t>2018-15542</t>
+          <t>2018-15549</t>
         </is>
       </c>
       <c r="W66" s="0" t="d">
@@ -8386,12 +8507,12 @@
       <c r="X66" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y66" s="0" t="inlineStr">
+      <c r="Y66" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z66" s="0" t="inlineStr">
+      <c r="Z66" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -8417,11 +8538,11 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>9621</v>
+        <v>9622</v>
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>PCIU1324914</t>
+          <t>TCLU7490886</t>
         </is>
       </c>
       <c r="C67" s="0" t="n">
@@ -8481,13 +8602,13 @@
       </c>
       <c r="T67" s="0" t="inlineStr">
         <is>
-          <t>CN0343754</t>
+          <t>CN0343755</t>
         </is>
       </c>
       <c r="U67" s="0"/>
       <c r="V67" s="0" t="inlineStr">
         <is>
-          <t>2018-15549</t>
+          <t>2018-15550</t>
         </is>
       </c>
       <c r="W67" s="0" t="d">
@@ -8496,12 +8617,12 @@
       <c r="X67" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y67" s="0" t="inlineStr">
+      <c r="Y67" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z67" s="0" t="inlineStr">
+      <c r="Z67" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -8527,11 +8648,11 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>9622</v>
+        <v>9623</v>
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>TCLU7490886</t>
+          <t>CAIU3628517</t>
         </is>
       </c>
       <c r="C68" s="0" t="n">
@@ -8591,13 +8712,13 @@
       </c>
       <c r="T68" s="0" t="inlineStr">
         <is>
-          <t>CN0343755</t>
+          <t>CN0343760</t>
         </is>
       </c>
       <c r="U68" s="0"/>
       <c r="V68" s="0" t="inlineStr">
         <is>
-          <t>2018-15550</t>
+          <t>2018-15541</t>
         </is>
       </c>
       <c r="W68" s="0" t="d">
@@ -8606,12 +8727,12 @@
       <c r="X68" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y68" s="0" t="inlineStr">
+      <c r="Y68" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z68" s="0" t="inlineStr">
+      <c r="Z68" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -8637,11 +8758,11 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>9623</v>
+        <v>9624</v>
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>CAIU3628517</t>
+          <t>TRLU9289864</t>
         </is>
       </c>
       <c r="C69" s="0" t="n">
@@ -8701,27 +8822,27 @@
       </c>
       <c r="T69" s="0" t="inlineStr">
         <is>
-          <t>CN0343760</t>
+          <t>CN0343757</t>
         </is>
       </c>
       <c r="U69" s="0"/>
       <c r="V69" s="0" t="inlineStr">
         <is>
-          <t>2018-15541</t>
+          <t>2018-15574</t>
         </is>
       </c>
       <c r="W69" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
       <c r="X69" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="Y69" s="0" t="inlineStr">
+        <v>2018-09-16T00:00:00</v>
+      </c>
+      <c r="Y69" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z69" s="0" t="inlineStr">
+      <c r="Z69" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -8747,11 +8868,11 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>9624</v>
+        <v>9625</v>
       </c>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>TRLU9289864</t>
+          <t>PCIU1970869</t>
         </is>
       </c>
       <c r="C70" s="0" t="n">
@@ -8811,13 +8932,13 @@
       </c>
       <c r="T70" s="0" t="inlineStr">
         <is>
-          <t>CN0343757</t>
+          <t>CN0343751</t>
         </is>
       </c>
       <c r="U70" s="0"/>
       <c r="V70" s="0" t="inlineStr">
         <is>
-          <t>2018-15574</t>
+          <t>2018-15522</t>
         </is>
       </c>
       <c r="W70" s="0" t="d">
@@ -8826,12 +8947,12 @@
       <c r="X70" s="0" t="d">
         <v>2018-09-16T00:00:00</v>
       </c>
-      <c r="Y70" s="0" t="inlineStr">
+      <c r="Y70" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z70" s="0" t="inlineStr">
+      <c r="Z70" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -8854,116 +8975,6 @@
         </is>
       </c>
       <c r="AF70" s="0"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="0" t="n">
-        <v>9625</v>
-      </c>
-      <c r="B71" s="0" t="inlineStr">
-        <is>
-          <t>PCIU1970869</t>
-        </is>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D71" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="E71" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="F71" s="0" t="inlineStr">
-        <is>
-          <t>PIL</t>
-        </is>
-      </c>
-      <c r="G71" s="0" t="inlineStr">
-        <is>
-          <t>PIL</t>
-        </is>
-      </c>
-      <c r="H71" s="0" t="inlineStr">
-        <is>
-          <t>KOTA ANGGERIK</t>
-        </is>
-      </c>
-      <c r="I71" s="0" t="inlineStr">
-        <is>
-          <t>2742/2018</t>
-        </is>
-      </c>
-      <c r="J71" s="0" t="inlineStr">
-        <is>
-          <t>SHODESH SHIPPING &amp; LOGISTIC</t>
-        </is>
-      </c>
-      <c r="K71" s="0" t="inlineStr">
-        <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="L71" s="0"/>
-      <c r="M71" s="0"/>
-      <c r="N71" s="0"/>
-      <c r="O71" s="0"/>
-      <c r="P71" s="0"/>
-      <c r="Q71" s="0"/>
-      <c r="R71" s="0"/>
-      <c r="S71" s="0" t="inlineStr">
-        <is>
-          <t>SODIUM SULPHATE</t>
-        </is>
-      </c>
-      <c r="T71" s="0" t="inlineStr">
-        <is>
-          <t>CN0343751</t>
-        </is>
-      </c>
-      <c r="U71" s="0"/>
-      <c r="V71" s="0" t="inlineStr">
-        <is>
-          <t>2018-15522</t>
-        </is>
-      </c>
-      <c r="W71" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="X71" s="0" t="d">
-        <v>2018-09-16T00:00:00</v>
-      </c>
-      <c r="Y71" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="Z71" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="AA71" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB71" s="0" t="inlineStr">
-        <is>
-          <t>WUAN80023800</t>
-        </is>
-      </c>
-      <c r="AC71" s="0" t="n">
-        <v>178</v>
-      </c>
-      <c r="AD71" s="0"/>
-      <c r="AE71" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF71" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -8986,15 +8997,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -9011,78 +9022,109 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>PIL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>PIL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Laden Stock Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>PIL</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>PIL</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>20-GP</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -9098,17 +9140,17 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>20-GP</t>
+          <t>40-HC</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0</v>
@@ -9120,44 +9162,6 @@
         <v>0</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>PIL</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>PIL</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>40-HC</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9182,13 +9186,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -9196,20 +9200,20 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="22" max="22" bestFit="false" customWidth="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -9219,167 +9223,165 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>PIL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>PIL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Issue Balance Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Vessel Name</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
